--- a/results/2025-26/schBotolaD1/CalendarD1-v0/fullCalendar.xlsx
+++ b/results/2025-26/schBotolaD1/CalendarD1-v0/fullCalendar.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Calendar" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Calendar!$A$1:$G$150</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Calendar!$A$1:$G$148</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1057" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1043" uniqueCount="150">
   <si>
     <t>Competition</t>
   </si>
@@ -531,7 +531,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1051">
+  <cellXfs count="1037">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
@@ -897,20 +897,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
@@ -1589,7 +1575,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H151"/>
+  <dimension ref="A1:H149"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2828,21 +2814,21 @@
         <v>70</v>
       </c>
       <c r="E54" t="s" s="369">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="F54" t="s" s="370">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="G54" t="s" s="371">
-        <v>13</v>
+        <v>39</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="372">
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="B55" t="s" s="373">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="C55" t="s" s="374">
         <v>17</v>
@@ -2851,21 +2837,21 @@
         <v>70</v>
       </c>
       <c r="E55" t="s" s="376">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="F55" t="s" s="377">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="G55" t="s" s="378">
-        <v>20</v>
+        <v>39</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="379">
-        <v>7</v>
+        <v>62</v>
       </c>
       <c r="B56" t="s" s="380">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="C56" t="s" s="381">
         <v>17</v>
@@ -2874,33 +2860,33 @@
         <v>70</v>
       </c>
       <c r="E56" t="s" s="383">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="F56" t="s" s="384">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="G56" t="s" s="385">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="386">
-        <v>59</v>
+        <v>7</v>
       </c>
       <c r="B57" t="s" s="387">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="C57" t="s" s="388">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D57" t="s" s="389">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E57" t="s" s="390">
         <v>39</v>
       </c>
       <c r="F57" t="s" s="391">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="G57" t="s" s="392">
         <v>39</v>
@@ -2908,22 +2894,22 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="393">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B58" t="s" s="394">
         <v>39</v>
       </c>
       <c r="C58" t="s" s="395">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D58" t="s" s="396">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E58" t="s" s="397">
         <v>39</v>
       </c>
       <c r="F58" t="s" s="398">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G58" t="s" s="399">
         <v>39</v>
@@ -2931,10 +2917,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="400">
-        <v>7</v>
+        <v>62</v>
       </c>
       <c r="B59" t="s" s="401">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="C59" t="s" s="402">
         <v>26</v>
@@ -2943,33 +2929,33 @@
         <v>71</v>
       </c>
       <c r="E59" t="s" s="404">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="F59" t="s" s="405">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="G59" t="s" s="406">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="407">
-        <v>59</v>
+        <v>7</v>
       </c>
       <c r="B60" t="s" s="408">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="C60" t="s" s="409">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s" s="410">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E60" t="s" s="411">
         <v>39</v>
       </c>
       <c r="F60" t="s" s="412">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="G60" t="s" s="413">
         <v>39</v>
@@ -2977,22 +2963,22 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="414">
-        <v>62</v>
+        <v>7</v>
       </c>
       <c r="B61" t="s" s="415">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="C61" t="s" s="416">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D61" t="s" s="417">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E61" t="s" s="418">
         <v>39</v>
       </c>
       <c r="F61" t="s" s="419">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="G61" t="s" s="420">
         <v>39</v>
@@ -3006,10 +2992,10 @@
         <v>72</v>
       </c>
       <c r="C62" t="s" s="423">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="D62" t="s" s="424">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E62" t="s" s="425">
         <v>39</v>
@@ -3023,16 +3009,16 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="428">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="B63" t="s" s="429">
-        <v>72</v>
+        <v>39</v>
       </c>
       <c r="C63" t="s" s="430">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="D63" t="s" s="431">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E63" t="s" s="432">
         <v>39</v>
@@ -3046,16 +3032,16 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="435">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="B64" t="s" s="436">
-        <v>72</v>
+        <v>39</v>
       </c>
       <c r="C64" t="s" s="437">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="D64" t="s" s="438">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E64" t="s" s="439">
         <v>39</v>
@@ -3075,10 +3061,10 @@
         <v>39</v>
       </c>
       <c r="C65" t="s" s="444">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D65" t="s" s="445">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E65" t="s" s="446">
         <v>39</v>
@@ -3098,10 +3084,10 @@
         <v>39</v>
       </c>
       <c r="C66" t="s" s="451">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D66" t="s" s="452">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E66" t="s" s="453">
         <v>39</v>
@@ -3121,10 +3107,10 @@
         <v>39</v>
       </c>
       <c r="C67" t="s" s="458">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s" s="459">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E67" t="s" s="460">
         <v>39</v>
@@ -3144,10 +3130,10 @@
         <v>39</v>
       </c>
       <c r="C68" t="s" s="465">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="D68" t="s" s="466">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E68" t="s" s="467">
         <v>39</v>
@@ -3167,10 +3153,10 @@
         <v>39</v>
       </c>
       <c r="C69" t="s" s="472">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="D69" t="s" s="473">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E69" t="s" s="474">
         <v>39</v>
@@ -3190,10 +3176,10 @@
         <v>39</v>
       </c>
       <c r="C70" t="s" s="479">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="D70" t="s" s="480">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E70" t="s" s="481">
         <v>39</v>
@@ -3207,16 +3193,16 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="484">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="B71" t="s" s="485">
-        <v>39</v>
+        <v>84</v>
       </c>
       <c r="C71" t="s" s="486">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s" s="487">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E71" t="s" s="488">
         <v>39</v>
@@ -3230,22 +3216,22 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="491">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="B72" t="s" s="492">
         <v>39</v>
       </c>
       <c r="C72" t="s" s="493">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s" s="494">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E72" t="s" s="495">
         <v>39</v>
       </c>
       <c r="F72" t="s" s="496">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="G72" t="s" s="497">
         <v>39</v>
@@ -3253,10 +3239,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="498">
-        <v>7</v>
+        <v>62</v>
       </c>
       <c r="B73" t="s" s="499">
-        <v>84</v>
+        <v>39</v>
       </c>
       <c r="C73" t="s" s="500">
         <v>9</v>
@@ -3268,7 +3254,7 @@
         <v>39</v>
       </c>
       <c r="F73" t="s" s="503">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="G73" t="s" s="504">
         <v>39</v>
@@ -3276,22 +3262,22 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="505">
-        <v>59</v>
+        <v>7</v>
       </c>
       <c r="B74" t="s" s="506">
-        <v>39</v>
+        <v>84</v>
       </c>
       <c r="C74" t="s" s="507">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D74" t="s" s="508">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E74" t="s" s="509">
         <v>39</v>
       </c>
       <c r="F74" t="s" s="510">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="G74" t="s" s="511">
         <v>39</v>
@@ -3299,22 +3285,22 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="512">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B75" t="s" s="513">
         <v>39</v>
       </c>
       <c r="C75" t="s" s="514">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D75" t="s" s="515">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E75" t="s" s="516">
         <v>39</v>
       </c>
       <c r="F75" t="s" s="517">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G75" t="s" s="518">
         <v>39</v>
@@ -3322,10 +3308,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="519">
-        <v>7</v>
+        <v>62</v>
       </c>
       <c r="B76" t="s" s="520">
-        <v>84</v>
+        <v>39</v>
       </c>
       <c r="C76" t="s" s="521">
         <v>17</v>
@@ -3337,7 +3323,7 @@
         <v>39</v>
       </c>
       <c r="F76" t="s" s="524">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="G76" t="s" s="525">
         <v>39</v>
@@ -3345,22 +3331,22 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="526">
-        <v>59</v>
+        <v>7</v>
       </c>
       <c r="B77" t="s" s="527">
-        <v>39</v>
+        <v>84</v>
       </c>
       <c r="C77" t="s" s="528">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D77" t="s" s="529">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E77" t="s" s="530">
         <v>39</v>
       </c>
       <c r="F77" t="s" s="531">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="G77" t="s" s="532">
         <v>39</v>
@@ -3368,22 +3354,22 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="533">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B78" t="s" s="534">
         <v>39</v>
       </c>
       <c r="C78" t="s" s="535">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D78" t="s" s="536">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E78" t="s" s="537">
         <v>39</v>
       </c>
       <c r="F78" t="s" s="538">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G78" t="s" s="539">
         <v>39</v>
@@ -3391,10 +3377,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="540">
-        <v>7</v>
+        <v>62</v>
       </c>
       <c r="B79" t="s" s="541">
-        <v>84</v>
+        <v>39</v>
       </c>
       <c r="C79" t="s" s="542">
         <v>26</v>
@@ -3406,7 +3392,7 @@
         <v>39</v>
       </c>
       <c r="F79" t="s" s="545">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="G79" t="s" s="546">
         <v>39</v>
@@ -3420,10 +3406,10 @@
         <v>39</v>
       </c>
       <c r="C80" t="s" s="549">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s" s="550">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E80" t="s" s="551">
         <v>39</v>
@@ -3443,10 +3429,10 @@
         <v>39</v>
       </c>
       <c r="C81" t="s" s="556">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s" s="557">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E81" t="s" s="558">
         <v>39</v>
@@ -3466,10 +3452,10 @@
         <v>39</v>
       </c>
       <c r="C82" t="s" s="563">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D82" t="s" s="564">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E82" t="s" s="565">
         <v>39</v>
@@ -3489,10 +3475,10 @@
         <v>39</v>
       </c>
       <c r="C83" t="s" s="570">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D83" t="s" s="571">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E83" t="s" s="572">
         <v>39</v>
@@ -3512,10 +3498,10 @@
         <v>39</v>
       </c>
       <c r="C84" t="s" s="577">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D84" t="s" s="578">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E84" t="s" s="579">
         <v>39</v>
@@ -3535,10 +3521,10 @@
         <v>39</v>
       </c>
       <c r="C85" t="s" s="584">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D85" t="s" s="585">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E85" t="s" s="586">
         <v>39</v>
@@ -3552,22 +3538,22 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="589">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="B86" t="s" s="590">
         <v>39</v>
       </c>
       <c r="C86" t="s" s="591">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="D86" t="s" s="592">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E86" t="s" s="593">
         <v>39</v>
       </c>
       <c r="F86" t="s" s="594">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="G86" t="s" s="595">
         <v>39</v>
@@ -3575,22 +3561,22 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="596">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="B87" t="s" s="597">
         <v>39</v>
       </c>
       <c r="C87" t="s" s="598">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="D87" t="s" s="599">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E87" t="s" s="600">
         <v>39</v>
       </c>
       <c r="F87" t="s" s="601">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="G87" t="s" s="602">
         <v>39</v>
@@ -3604,10 +3590,10 @@
         <v>39</v>
       </c>
       <c r="C88" t="s" s="605">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D88" t="s" s="606">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E88" t="s" s="607">
         <v>39</v>
@@ -3627,10 +3613,10 @@
         <v>39</v>
       </c>
       <c r="C89" t="s" s="612">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D89" t="s" s="613">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E89" t="s" s="614">
         <v>39</v>
@@ -3650,10 +3636,10 @@
         <v>39</v>
       </c>
       <c r="C90" t="s" s="619">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s" s="620">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E90" t="s" s="621">
         <v>39</v>
@@ -3673,10 +3659,10 @@
         <v>39</v>
       </c>
       <c r="C91" t="s" s="626">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="D91" t="s" s="627">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E91" t="s" s="628">
         <v>39</v>
@@ -3696,10 +3682,10 @@
         <v>39</v>
       </c>
       <c r="C92" t="s" s="633">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="D92" t="s" s="634">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E92" t="s" s="635">
         <v>39</v>
@@ -3719,10 +3705,10 @@
         <v>39</v>
       </c>
       <c r="C93" t="s" s="640">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="D93" t="s" s="641">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E93" t="s" s="642">
         <v>39</v>
@@ -3736,22 +3722,22 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="645">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="B94" t="s" s="646">
         <v>39</v>
       </c>
       <c r="C94" t="s" s="647">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s" s="648">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E94" t="s" s="649">
         <v>39</v>
       </c>
       <c r="F94" t="s" s="650">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="G94" t="s" s="651">
         <v>39</v>
@@ -3759,22 +3745,22 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="652">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="B95" t="s" s="653">
         <v>39</v>
       </c>
       <c r="C95" t="s" s="654">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s" s="655">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E95" t="s" s="656">
         <v>39</v>
       </c>
       <c r="F95" t="s" s="657">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="G95" t="s" s="658">
         <v>39</v>
@@ -3788,10 +3774,10 @@
         <v>39</v>
       </c>
       <c r="C96" t="s" s="661">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D96" t="s" s="662">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E96" t="s" s="663">
         <v>39</v>
@@ -3811,10 +3797,10 @@
         <v>39</v>
       </c>
       <c r="C97" t="s" s="668">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D97" t="s" s="669">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E97" t="s" s="670">
         <v>39</v>
@@ -3834,10 +3820,10 @@
         <v>39</v>
       </c>
       <c r="C98" t="s" s="675">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D98" t="s" s="676">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E98" t="s" s="677">
         <v>39</v>
@@ -3857,10 +3843,10 @@
         <v>39</v>
       </c>
       <c r="C99" t="s" s="682">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D99" t="s" s="683">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E99" t="s" s="684">
         <v>39</v>
@@ -3880,10 +3866,10 @@
         <v>39</v>
       </c>
       <c r="C100" t="s" s="689">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D100" t="s" s="690">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E100" t="s" s="691">
         <v>39</v>
@@ -3903,10 +3889,10 @@
         <v>39</v>
       </c>
       <c r="C101" t="s" s="696">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D101" t="s" s="697">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E101" t="s" s="698">
         <v>39</v>
@@ -3926,10 +3912,10 @@
         <v>39</v>
       </c>
       <c r="C102" t="s" s="703">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D102" t="s" s="704">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E102" t="s" s="705">
         <v>39</v>
@@ -3949,10 +3935,10 @@
         <v>39</v>
       </c>
       <c r="C103" t="s" s="710">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D103" t="s" s="711">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E103" t="s" s="712">
         <v>39</v>
@@ -3972,10 +3958,10 @@
         <v>39</v>
       </c>
       <c r="C104" t="s" s="717">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D104" t="s" s="718">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E104" t="s" s="719">
         <v>39</v>
@@ -3995,10 +3981,10 @@
         <v>39</v>
       </c>
       <c r="C105" t="s" s="724">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D105" t="s" s="725">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E105" t="s" s="726">
         <v>39</v>
@@ -4012,7 +3998,7 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="729">
-        <v>59</v>
+        <v>105</v>
       </c>
       <c r="B106" t="s" s="730">
         <v>39</v>
@@ -4021,13 +4007,13 @@
         <v>26</v>
       </c>
       <c r="D106" t="s" s="732">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E106" t="s" s="733">
         <v>39</v>
       </c>
       <c r="F106" t="s" s="734">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="G106" t="s" s="735">
         <v>39</v>
@@ -4035,22 +4021,22 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="736">
-        <v>62</v>
+        <v>105</v>
       </c>
       <c r="B107" t="s" s="737">
         <v>39</v>
       </c>
       <c r="C107" t="s" s="738">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="D107" t="s" s="739">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E107" t="s" s="740">
         <v>39</v>
       </c>
       <c r="F107" t="s" s="741">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="G107" t="s" s="742">
         <v>39</v>
@@ -4064,10 +4050,10 @@
         <v>39</v>
       </c>
       <c r="C108" t="s" s="745">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="D108" t="s" s="746">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E108" t="s" s="747">
         <v>39</v>
@@ -4087,10 +4073,10 @@
         <v>39</v>
       </c>
       <c r="C109" t="s" s="752">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D109" t="s" s="753">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E109" t="s" s="754">
         <v>39</v>
@@ -4110,10 +4096,10 @@
         <v>39</v>
       </c>
       <c r="C110" t="s" s="759">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D110" t="s" s="760">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E110" t="s" s="761">
         <v>39</v>
@@ -4133,10 +4119,10 @@
         <v>39</v>
       </c>
       <c r="C111" t="s" s="766">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="D111" t="s" s="767">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E111" t="s" s="768">
         <v>39</v>
@@ -4156,10 +4142,10 @@
         <v>39</v>
       </c>
       <c r="C112" t="s" s="773">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="D112" t="s" s="774">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E112" t="s" s="775">
         <v>39</v>
@@ -4179,10 +4165,10 @@
         <v>39</v>
       </c>
       <c r="C113" t="s" s="780">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="D113" t="s" s="781">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E113" t="s" s="782">
         <v>39</v>
@@ -4202,10 +4188,10 @@
         <v>39</v>
       </c>
       <c r="C114" t="s" s="787">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="D114" t="s" s="788">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E114" t="s" s="789">
         <v>39</v>
@@ -4225,10 +4211,10 @@
         <v>39</v>
       </c>
       <c r="C115" t="s" s="794">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="D115" t="s" s="795">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E115" t="s" s="796">
         <v>39</v>
@@ -4248,10 +4234,10 @@
         <v>39</v>
       </c>
       <c r="C116" t="s" s="801">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D116" t="s" s="802">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E116" t="s" s="803">
         <v>39</v>
@@ -4271,10 +4257,10 @@
         <v>39</v>
       </c>
       <c r="C117" t="s" s="808">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D117" t="s" s="809">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E117" t="s" s="810">
         <v>39</v>
@@ -4294,10 +4280,10 @@
         <v>39</v>
       </c>
       <c r="C118" t="s" s="815">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="D118" t="s" s="816">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E118" t="s" s="817">
         <v>39</v>
@@ -4317,10 +4303,10 @@
         <v>39</v>
       </c>
       <c r="C119" t="s" s="822">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="D119" t="s" s="823">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E119" t="s" s="824">
         <v>39</v>
@@ -4340,10 +4326,10 @@
         <v>39</v>
       </c>
       <c r="C120" t="s" s="829">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="D120" t="s" s="830">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E120" t="s" s="831">
         <v>39</v>
@@ -4363,10 +4349,10 @@
         <v>39</v>
       </c>
       <c r="C121" t="s" s="836">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="D121" t="s" s="837">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E121" t="s" s="838">
         <v>39</v>
@@ -4386,10 +4372,10 @@
         <v>39</v>
       </c>
       <c r="C122" t="s" s="843">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="D122" t="s" s="844">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E122" t="s" s="845">
         <v>39</v>
@@ -4409,10 +4395,10 @@
         <v>39</v>
       </c>
       <c r="C123" t="s" s="850">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D123" t="s" s="851">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E123" t="s" s="852">
         <v>39</v>
@@ -4432,10 +4418,10 @@
         <v>39</v>
       </c>
       <c r="C124" t="s" s="857">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D124" t="s" s="858">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E124" t="s" s="859">
         <v>39</v>
@@ -4455,10 +4441,10 @@
         <v>39</v>
       </c>
       <c r="C125" t="s" s="864">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="D125" t="s" s="865">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E125" t="s" s="866">
         <v>39</v>
@@ -4478,10 +4464,10 @@
         <v>39</v>
       </c>
       <c r="C126" t="s" s="871">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="D126" t="s" s="872">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E126" t="s" s="873">
         <v>39</v>
@@ -4501,10 +4487,10 @@
         <v>39</v>
       </c>
       <c r="C127" t="s" s="878">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="D127" t="s" s="879">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E127" t="s" s="880">
         <v>39</v>
@@ -4524,10 +4510,10 @@
         <v>39</v>
       </c>
       <c r="C128" t="s" s="885">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="D128" t="s" s="886">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E128" t="s" s="887">
         <v>39</v>
@@ -4547,10 +4533,10 @@
         <v>39</v>
       </c>
       <c r="C129" t="s" s="892">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="D129" t="s" s="893">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E129" t="s" s="894">
         <v>39</v>
@@ -4570,10 +4556,10 @@
         <v>39</v>
       </c>
       <c r="C130" t="s" s="899">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D130" t="s" s="900">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E130" t="s" s="901">
         <v>39</v>
@@ -4593,10 +4579,10 @@
         <v>39</v>
       </c>
       <c r="C131" t="s" s="906">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D131" t="s" s="907">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E131" t="s" s="908">
         <v>39</v>
@@ -4616,10 +4602,10 @@
         <v>39</v>
       </c>
       <c r="C132" t="s" s="913">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="D132" t="s" s="914">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E132" t="s" s="915">
         <v>39</v>
@@ -4639,10 +4625,10 @@
         <v>39</v>
       </c>
       <c r="C133" t="s" s="920">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="D133" t="s" s="921">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E133" t="s" s="922">
         <v>39</v>
@@ -4662,10 +4648,10 @@
         <v>39</v>
       </c>
       <c r="C134" t="s" s="927">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="D134" t="s" s="928">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E134" t="s" s="929">
         <v>39</v>
@@ -4679,16 +4665,16 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="932">
-        <v>105</v>
+        <v>38</v>
       </c>
       <c r="B135" t="s" s="933">
         <v>39</v>
       </c>
       <c r="C135" t="s" s="934">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="D135" t="s" s="935">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E135" t="s" s="936">
         <v>39</v>
@@ -4702,16 +4688,16 @@
     </row>
     <row r="136">
       <c r="A136" t="s" s="939">
-        <v>105</v>
+        <v>38</v>
       </c>
       <c r="B136" t="s" s="940">
         <v>39</v>
       </c>
       <c r="C136" t="s" s="941">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="D136" t="s" s="942">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E136" t="s" s="943">
         <v>39</v>
@@ -4731,10 +4717,10 @@
         <v>39</v>
       </c>
       <c r="C137" t="s" s="948">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D137" t="s" s="949">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E137" t="s" s="950">
         <v>39</v>
@@ -4754,10 +4740,10 @@
         <v>39</v>
       </c>
       <c r="C138" t="s" s="955">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D138" t="s" s="956">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E138" t="s" s="957">
         <v>39</v>
@@ -4777,10 +4763,10 @@
         <v>39</v>
       </c>
       <c r="C139" t="s" s="962">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="D139" t="s" s="963">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E139" t="s" s="964">
         <v>39</v>
@@ -4800,10 +4786,10 @@
         <v>39</v>
       </c>
       <c r="C140" t="s" s="969">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="D140" t="s" s="970">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E140" t="s" s="971">
         <v>39</v>
@@ -4823,10 +4809,10 @@
         <v>39</v>
       </c>
       <c r="C141" t="s" s="976">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="D141" t="s" s="977">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E141" t="s" s="978">
         <v>39</v>
@@ -4846,10 +4832,10 @@
         <v>39</v>
       </c>
       <c r="C142" t="s" s="983">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="D142" t="s" s="984">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E142" t="s" s="985">
         <v>39</v>
@@ -4869,10 +4855,10 @@
         <v>39</v>
       </c>
       <c r="C143" t="s" s="990">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="D143" t="s" s="991">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E143" t="s" s="992">
         <v>39</v>
@@ -4895,7 +4881,7 @@
         <v>40</v>
       </c>
       <c r="D144" t="s" s="998">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E144" t="s" s="999">
         <v>39</v>
@@ -4918,7 +4904,7 @@
         <v>42</v>
       </c>
       <c r="D145" t="s" s="1005">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E145" t="s" s="1006">
         <v>39</v>
@@ -4938,10 +4924,10 @@
         <v>39</v>
       </c>
       <c r="C146" t="s" s="1011">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D146" t="s" s="1012">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E146" t="s" s="1013">
         <v>39</v>
@@ -4961,10 +4947,10 @@
         <v>39</v>
       </c>
       <c r="C147" t="s" s="1018">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D147" t="s" s="1019">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E147" t="s" s="1020">
         <v>39</v>
@@ -4984,10 +4970,10 @@
         <v>39</v>
       </c>
       <c r="C148" t="s" s="1025">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="D148" t="s" s="1026">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E148" t="s" s="1027">
         <v>39</v>
@@ -5007,10 +4993,10 @@
         <v>39</v>
       </c>
       <c r="C149" t="s" s="1032">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="D149" t="s" s="1033">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E149" t="s" s="1034">
         <v>39</v>
@@ -5022,54 +5008,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="150">
-      <c r="A150" t="s" s="1037">
-        <v>38</v>
-      </c>
-      <c r="B150" t="s" s="1038">
-        <v>39</v>
-      </c>
-      <c r="C150" t="s" s="1039">
-        <v>9</v>
-      </c>
-      <c r="D150" t="s" s="1040">
-        <v>148</v>
-      </c>
-      <c r="E150" t="s" s="1041">
-        <v>39</v>
-      </c>
-      <c r="F150" t="s" s="1042">
-        <v>39</v>
-      </c>
-      <c r="G150" t="s" s="1043">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="s" s="1044">
-        <v>38</v>
-      </c>
-      <c r="B151" t="s" s="1045">
-        <v>39</v>
-      </c>
-      <c r="C151" t="s" s="1046">
-        <v>17</v>
-      </c>
-      <c r="D151" t="s" s="1047">
-        <v>149</v>
-      </c>
-      <c r="E151" t="s" s="1048">
-        <v>39</v>
-      </c>
-      <c r="F151" t="s" s="1049">
-        <v>39</v>
-      </c>
-      <c r="G151" t="s" s="1050">
-        <v>39</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:G150"/>
+  <autoFilter ref="A1:G148"/>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>